--- a/03_Elderly_fall_detection/Elderly_fall_detection_cam/exe/hrnet_cam/hrnet_cam_summary.xlsx
+++ b/03_Elderly_fall_detection/Elderly_fall_detection_cam/exe/hrnet_cam/hrnet_cam_summary.xlsx
@@ -891,7 +891,7 @@
         <v>256</v>
       </c>
       <c r="S7" t="n">
-        <v>2129</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="8" outlineLevel="1">
@@ -957,7 +957,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>input.4</t>
+          <t>/backbone/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>input.12</t>
+          <t>/backbone/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>input.20</t>
+          <t>/backbone/layer1/layer1.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>input.28</t>
+          <t>/backbone/layer1/layer1.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>onnx::Add_2960</t>
+          <t>/backbone/layer1/layer1.0/conv3/Conv_output_0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>onnx::Add_2963</t>
+          <t>/backbone/layer1/layer1.0/downsample/downsample.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>onnx::Relu_1771</t>
+          <t>/backbone/layer1/layer1.0/Add_output_0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>input.48</t>
+          <t>/backbone/layer1/layer1.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>input.56</t>
+          <t>/backbone/layer1/layer1.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>onnx::Add_2972</t>
+          <t>/backbone/layer1/layer1.1/conv3/Conv_output_0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>onnx::Relu_1781</t>
+          <t>/backbone/layer1/layer1.1/Add_output_0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>input.72</t>
+          <t>/backbone/layer1/layer1.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>input.80</t>
+          <t>/backbone/layer1/layer1.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>onnx::Add_2981</t>
+          <t>/backbone/layer1/layer1.2/conv3/Conv_output_0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>onnx::Relu_1791</t>
+          <t>/backbone/layer1/layer1.2/Add_output_0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>input.96</t>
+          <t>/backbone/layer1/layer1.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>input.104</t>
+          <t>/backbone/layer1/layer1.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>onnx::Add_2990</t>
+          <t>/backbone/layer1/layer1.3/conv3/Conv_output_0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2037,7 +2037,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>onnx::Relu_1801</t>
+          <t>/backbone/layer1/layer1.3/Add_output_0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>input.120</t>
+          <t>/backbone/transition1.0/transition1.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>input.136</t>
+          <t>/backbone/stage2/stage2.0/branches.0/branches.0.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>onnx::Add_3002</t>
+          <t>/backbone/stage2/stage2.0/branches.0/branches.0.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>onnx::Relu_1814</t>
+          <t>/backbone/stage2/stage2.0/branches.0/branches.0.0/Add_output_0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>input.152</t>
+          <t>/backbone/stage2/stage2.0/branches.0/branches.0.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>onnx::Add_3008</t>
+          <t>/backbone/stage2/stage2.0/branches.0/branches.0.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>onnx::Relu_1821</t>
+          <t>/backbone/stage2/stage2.0/branches.0/branches.0.1/Add_output_0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>input.168</t>
+          <t>/backbone/stage2/stage2.0/branches.0/branches.0.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>onnx::Add_3014</t>
+          <t>/backbone/stage2/stage2.0/branches.0/branches.0.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2637,7 +2637,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>onnx::Relu_1828</t>
+          <t>/backbone/stage2/stage2.0/branches.0/branches.0.2/Add_output_0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>input.184</t>
+          <t>/backbone/stage2/stage2.0/branches.0/branches.0.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>onnx::Add_3020</t>
+          <t>/backbone/stage2/stage2.0/branches.0/branches.0.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>onnx::Relu_1835</t>
+          <t>/backbone/stage2/stage2.0/branches.0/branches.0.3/Add_output_0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>onnx::Add_3050</t>
+          <t>/backbone/stage2/stage2.0/fuse_layers.1.0/fuse_layers.1.0.0/fuse_layers.1.0.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>input.128</t>
+          <t>/backbone/transition1.1/transition1.1.0/transition1.1.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>input.200</t>
+          <t>/backbone/stage2/stage2.0/branches.1/branches.1.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>onnx::Add_3026</t>
+          <t>/backbone/stage2/stage2.0/branches.1/branches.1.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>onnx::Relu_1842</t>
+          <t>/backbone/stage2/stage2.0/branches.1/branches.1.0/Add_output_0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>input.216</t>
+          <t>/backbone/stage2/stage2.0/branches.1/branches.1.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>onnx::Add_3032</t>
+          <t>/backbone/stage2/stage2.0/branches.1/branches.1.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>onnx::Relu_1849</t>
+          <t>/backbone/stage2/stage2.0/branches.1/branches.1.1/Add_output_0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>input.232</t>
+          <t>/backbone/stage2/stage2.0/branches.1/branches.1.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>onnx::Add_3038</t>
+          <t>/backbone/stage2/stage2.0/branches.1/branches.1.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>onnx::Relu_1856</t>
+          <t>/backbone/stage2/stage2.0/branches.1/branches.1.2/Add_output_0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>input.248</t>
+          <t>/backbone/stage2/stage2.0/branches.1/branches.1.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>onnx::Add_3044</t>
+          <t>/backbone/stage2/stage2.0/branches.1/branches.1.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>onnx::Relu_1863</t>
+          <t>/backbone/stage2/stage2.0/branches.1/branches.1.3/Add_output_0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>input.264</t>
+          <t>/backbone/stage2/stage2.0/fuse_layers.0.1/fuse_layers.0.1.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>onnx::Add_1873</t>
+          <t>/backbone/stage2/stage2.0/fuse_layers.0.1/fuse_layers.0.1.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>onnx::Relu_1874</t>
+          <t>/backbone/stage2/stage2.0/Add_1_output_0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>input.292</t>
+          <t>/backbone/stage3/stage3.0/branches.0/branches.0.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>onnx::Add_3059</t>
+          <t>/backbone/stage3/stage3.0/branches.0/branches.0.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>onnx::Relu_1890</t>
+          <t>/backbone/stage3/stage3.0/branches.0/branches.0.0/Add_output_0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>input.308</t>
+          <t>/backbone/stage3/stage3.0/branches.0/branches.0.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>onnx::Add_3065</t>
+          <t>/backbone/stage3/stage3.0/branches.0/branches.0.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>onnx::Relu_1897</t>
+          <t>/backbone/stage3/stage3.0/branches.0/branches.0.1/Add_output_0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>input.324</t>
+          <t>/backbone/stage3/stage3.0/branches.0/branches.0.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>onnx::Add_3071</t>
+          <t>/backbone/stage3/stage3.0/branches.0/branches.0.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>onnx::Relu_1904</t>
+          <t>/backbone/stage3/stage3.0/branches.0/branches.0.2/Add_output_0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>input.340</t>
+          <t>/backbone/stage3/stage3.0/branches.0/branches.0.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>onnx::Add_3077</t>
+          <t>/backbone/stage3/stage3.0/branches.0/branches.0.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>onnx::Relu_1911</t>
+          <t>/backbone/stage3/stage3.0/branches.0/branches.0.3/Add_output_0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>onnx::Add_3134</t>
+          <t>/backbone/stage3/stage3.0/fuse_layers.1.0/fuse_layers.1.0.0/fuse_layers.1.0.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>input.520</t>
+          <t>/backbone/stage3/stage3.0/fuse_layers.2.0/fuse_layers.2.0.0/fuse_layers.2.0.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>onnx::Add_3143</t>
+          <t>/backbone/stage3/stage3.0/fuse_layers.2.0/fuse_layers.2.0.1/fuse_layers.2.0.1.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>onnx::Relu_1880</t>
+          <t>/backbone/stage2/stage2.0/Add_3_output_0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>input.284</t>
+          <t>/backbone/transition2.2/transition2.2.0/transition2.2.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>input.420</t>
+          <t>/backbone/stage3/stage3.0/branches.2/branches.2.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>onnx::Add_3107</t>
+          <t>/backbone/stage3/stage3.0/branches.2/branches.2.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>onnx::Relu_1946</t>
+          <t>/backbone/stage3/stage3.0/branches.2/branches.2.0/Add_output_0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>input.436</t>
+          <t>/backbone/stage3/stage3.0/branches.2/branches.2.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>onnx::Add_3113</t>
+          <t>/backbone/stage3/stage3.0/branches.2/branches.2.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>onnx::Relu_1953</t>
+          <t>/backbone/stage3/stage3.0/branches.2/branches.2.1/Add_output_0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5277,7 +5277,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>input.452</t>
+          <t>/backbone/stage3/stage3.0/branches.2/branches.2.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>onnx::Add_3119</t>
+          <t>/backbone/stage3/stage3.0/branches.2/branches.2.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>onnx::Relu_1960</t>
+          <t>/backbone/stage3/stage3.0/branches.2/branches.2.2/Add_output_0</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5457,7 +5457,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>input.468</t>
+          <t>/backbone/stage3/stage3.0/branches.2/branches.2.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>onnx::Add_3125</t>
+          <t>/backbone/stage3/stage3.0/branches.2/branches.2.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5577,7 +5577,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>onnx::Relu_1967</t>
+          <t>/backbone/stage3/stage3.0/branches.2/branches.2.3/Add_output_0</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>input.492</t>
+          <t>/backbone/stage3/stage3.0/fuse_layers.0.2/fuse_layers.0.2.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5697,7 +5697,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>onnx::Add_1985</t>
+          <t>/backbone/stage3/stage3.0/fuse_layers.0.2/fuse_layers.0.2.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>input.508</t>
+          <t>/backbone/stage3/stage3.0/fuse_layers.1.2/fuse_layers.1.2.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>onnx::Add_1999</t>
+          <t>/backbone/stage3/stage3.0/fuse_layers.1.2/fuse_layers.1.2.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>input.356</t>
+          <t>/backbone/stage3/stage3.0/branches.1/branches.1.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>onnx::Add_3083</t>
+          <t>/backbone/stage3/stage3.0/branches.1/branches.1.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>onnx::Relu_1918</t>
+          <t>/backbone/stage3/stage3.0/branches.1/branches.1.0/Add_output_0</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>input.372</t>
+          <t>/backbone/stage3/stage3.0/branches.1/branches.1.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>onnx::Add_3089</t>
+          <t>/backbone/stage3/stage3.0/branches.1/branches.1.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6177,7 +6177,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>onnx::Relu_1925</t>
+          <t>/backbone/stage3/stage3.0/branches.1/branches.1.1/Add_output_0</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>input.388</t>
+          <t>/backbone/stage3/stage3.0/branches.1/branches.1.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6297,7 +6297,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>onnx::Add_3095</t>
+          <t>/backbone/stage3/stage3.0/branches.1/branches.1.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>onnx::Relu_1932</t>
+          <t>/backbone/stage3/stage3.0/branches.1/branches.1.2/Add_output_0</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>input.404</t>
+          <t>/backbone/stage3/stage3.0/branches.1/branches.1.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>onnx::Add_3101</t>
+          <t>/backbone/stage3/stage3.0/branches.1/branches.1.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>onnx::Relu_1939</t>
+          <t>/backbone/stage3/stage3.0/branches.1/branches.1.3/Add_output_0</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>input.484</t>
+          <t>/backbone/stage3/stage3.0/fuse_layers.0.1/fuse_layers.0.1.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>onnx::Add_1977</t>
+          <t>/backbone/stage3/stage3.0/fuse_layers.0.1/fuse_layers.0.1.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -6717,7 +6717,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>onnx::Add_1978</t>
+          <t>/backbone/stage3/stage3.0/Add_1_output_0</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -6777,7 +6777,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>input.496</t>
+          <t>/backbone/stage3/stage3.0/Add_2_output_0</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>input.540</t>
+          <t>/backbone/stage3/stage3.1/branches.0/branches.0.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>onnx::Add_3152</t>
+          <t>/backbone/stage3/stage3.1/branches.0/branches.0.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>onnx::Relu_2019</t>
+          <t>/backbone/stage3/stage3.1/branches.0/branches.0.0/Add_output_0</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>input.556</t>
+          <t>/backbone/stage3/stage3.1/branches.0/branches.0.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>onnx::Add_3158</t>
+          <t>/backbone/stage3/stage3.1/branches.0/branches.0.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>onnx::Relu_2026</t>
+          <t>/backbone/stage3/stage3.1/branches.0/branches.0.1/Add_output_0</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -7197,7 +7197,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>input.572</t>
+          <t>/backbone/stage3/stage3.1/branches.0/branches.0.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>onnx::Add_3164</t>
+          <t>/backbone/stage3/stage3.1/branches.0/branches.0.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>onnx::Relu_2033</t>
+          <t>/backbone/stage3/stage3.1/branches.0/branches.0.2/Add_output_0</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -7377,7 +7377,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>input.588</t>
+          <t>/backbone/stage3/stage3.1/branches.0/branches.0.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>onnx::Add_3170</t>
+          <t>/backbone/stage3/stage3.1/branches.0/branches.0.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>onnx::Relu_2040</t>
+          <t>/backbone/stage3/stage3.1/branches.0/branches.0.3/Add_output_0</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>onnx::Add_3227</t>
+          <t>/backbone/stage3/stage3.1/fuse_layers.1.0/fuse_layers.1.0.0/fuse_layers.1.0.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -7617,7 +7617,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>input.768</t>
+          <t>/backbone/stage3/stage3.1/fuse_layers.2.0/fuse_layers.2.0.0/fuse_layers.2.0.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>onnx::Add_3236</t>
+          <t>/backbone/stage3/stage3.1/fuse_layers.2.0/fuse_layers.2.0.1/fuse_layers.2.0.1.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>onnx::Add_1992</t>
+          <t>/backbone/stage3/stage3.0/Add_4_output_0</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>input.512</t>
+          <t>/backbone/stage3/stage3.0/Add_5_output_0</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>input.604</t>
+          <t>/backbone/stage3/stage3.1/branches.1/branches.1.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>onnx::Add_3176</t>
+          <t>/backbone/stage3/stage3.1/branches.1/branches.1.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -7977,7 +7977,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>onnx::Relu_2047</t>
+          <t>/backbone/stage3/stage3.1/branches.1/branches.1.0/Add_output_0</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>input.620</t>
+          <t>/backbone/stage3/stage3.1/branches.1/branches.1.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>onnx::Add_3182</t>
+          <t>/backbone/stage3/stage3.1/branches.1/branches.1.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>onnx::Relu_2054</t>
+          <t>/backbone/stage3/stage3.1/branches.1/branches.1.1/Add_output_0</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>input.636</t>
+          <t>/backbone/stage3/stage3.1/branches.1/branches.1.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>onnx::Add_3188</t>
+          <t>/backbone/stage3/stage3.1/branches.1/branches.1.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>onnx::Relu_2061</t>
+          <t>/backbone/stage3/stage3.1/branches.1/branches.1.2/Add_output_0</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -8397,7 +8397,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>input.652</t>
+          <t>/backbone/stage3/stage3.1/branches.1/branches.1.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -8457,7 +8457,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>onnx::Add_3194</t>
+          <t>/backbone/stage3/stage3.1/branches.1/branches.1.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>onnx::Relu_2068</t>
+          <t>/backbone/stage3/stage3.1/branches.1/branches.1.3/Add_output_0</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>input.732</t>
+          <t>/backbone/stage3/stage3.1/fuse_layers.0.1/fuse_layers.0.1.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -8637,7 +8637,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>onnx::Add_2106</t>
+          <t>/backbone/stage3/stage3.1/fuse_layers.0.1/fuse_layers.0.1.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -8697,7 +8697,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>onnx::Add_2107</t>
+          <t>/backbone/stage3/stage3.1/Add_1_output_0</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>onnx::Add_2121</t>
+          <t>/backbone/stage3/stage3.1/Add_4_output_0</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -8817,7 +8817,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>onnx::Add_3239</t>
+          <t>/backbone/stage3/stage3.1/fuse_layers.2.1/fuse_layers.2.1.0/fuse_layers.2.1.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -8877,7 +8877,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>onnx::Add_2140</t>
+          <t>/backbone/stage3/stage3.1/Add_7_output_0</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -8937,7 +8937,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>onnx::Add_3146</t>
+          <t>/backbone/stage3/stage3.0/fuse_layers.2.1/fuse_layers.2.1.0/fuse_layers.2.1.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>onnx::Add_2011</t>
+          <t>/backbone/stage3/stage3.0/Add_7_output_0</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -9057,7 +9057,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>input.532</t>
+          <t>/backbone/stage3/stage3.0/Add_8_output_0</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -9117,7 +9117,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>input.668</t>
+          <t>/backbone/stage3/stage3.1/branches.2/branches.2.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -9177,7 +9177,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>onnx::Add_3200</t>
+          <t>/backbone/stage3/stage3.1/branches.2/branches.2.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>onnx::Relu_2075</t>
+          <t>/backbone/stage3/stage3.1/branches.2/branches.2.0/Add_output_0</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -9297,7 +9297,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>input.684</t>
+          <t>/backbone/stage3/stage3.1/branches.2/branches.2.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -9357,7 +9357,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>onnx::Add_3206</t>
+          <t>/backbone/stage3/stage3.1/branches.2/branches.2.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -9417,7 +9417,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>onnx::Relu_2082</t>
+          <t>/backbone/stage3/stage3.1/branches.2/branches.2.1/Add_output_0</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>input.700</t>
+          <t>/backbone/stage3/stage3.1/branches.2/branches.2.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>onnx::Add_3212</t>
+          <t>/backbone/stage3/stage3.1/branches.2/branches.2.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>onnx::Relu_2089</t>
+          <t>/backbone/stage3/stage3.1/branches.2/branches.2.2/Add_output_0</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>input.716</t>
+          <t>/backbone/stage3/stage3.1/branches.2/branches.2.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>onnx::Add_3218</t>
+          <t>/backbone/stage3/stage3.1/branches.2/branches.2.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -9777,7 +9777,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>onnx::Relu_2096</t>
+          <t>/backbone/stage3/stage3.1/branches.2/branches.2.3/Add_output_0</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -9837,7 +9837,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>input.740</t>
+          <t>/backbone/stage3/stage3.1/fuse_layers.0.2/fuse_layers.0.2.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -9897,7 +9897,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>onnx::Add_2114</t>
+          <t>/backbone/stage3/stage3.1/fuse_layers.0.2/fuse_layers.0.2.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>input.744</t>
+          <t>/backbone/stage3/stage3.1/Add_2_output_0</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -10017,7 +10017,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>input.788</t>
+          <t>/backbone/stage3/stage3.2/branches.0/branches.0.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -10077,7 +10077,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>onnx::Add_3245</t>
+          <t>/backbone/stage3/stage3.2/branches.0/branches.0.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -10137,7 +10137,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>onnx::Relu_2148</t>
+          <t>/backbone/stage3/stage3.2/branches.0/branches.0.0/Add_output_0</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>input.804</t>
+          <t>/backbone/stage3/stage3.2/branches.0/branches.0.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -10257,7 +10257,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>onnx::Add_3251</t>
+          <t>/backbone/stage3/stage3.2/branches.0/branches.0.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -10317,7 +10317,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>onnx::Relu_2155</t>
+          <t>/backbone/stage3/stage3.2/branches.0/branches.0.1/Add_output_0</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -10377,7 +10377,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>input.820</t>
+          <t>/backbone/stage3/stage3.2/branches.0/branches.0.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>onnx::Add_3257</t>
+          <t>/backbone/stage3/stage3.2/branches.0/branches.0.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -10497,7 +10497,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>onnx::Relu_2162</t>
+          <t>/backbone/stage3/stage3.2/branches.0/branches.0.2/Add_output_0</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -10557,7 +10557,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>input.836</t>
+          <t>/backbone/stage3/stage3.2/branches.0/branches.0.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -10617,7 +10617,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>onnx::Add_3263</t>
+          <t>/backbone/stage3/stage3.2/branches.0/branches.0.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>onnx::Relu_2169</t>
+          <t>/backbone/stage3/stage3.2/branches.0/branches.0.3/Add_output_0</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -10737,7 +10737,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>onnx::Add_3320</t>
+          <t>/backbone/stage3/stage3.2/fuse_layers.1.0/fuse_layers.1.0.0/fuse_layers.1.0.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -10797,7 +10797,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>input.1016</t>
+          <t>/backbone/stage3/stage3.2/fuse_layers.2.0/fuse_layers.2.0.0/fuse_layers.2.0.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -10857,7 +10857,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>onnx::Add_3329</t>
+          <t>/backbone/stage3/stage3.2/fuse_layers.2.0/fuse_layers.2.0.1/fuse_layers.2.0.1.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>input.756</t>
+          <t>/backbone/stage3/stage3.1/fuse_layers.1.2/fuse_layers.1.2.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -10977,7 +10977,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>onnx::Add_2128</t>
+          <t>/backbone/stage3/stage3.1/fuse_layers.1.2/fuse_layers.1.2.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -11037,7 +11037,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>input.760</t>
+          <t>/backbone/stage3/stage3.1/Add_5_output_0</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -11097,7 +11097,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>input.852</t>
+          <t>/backbone/stage3/stage3.2/branches.1/branches.1.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>onnx::Add_3269</t>
+          <t>/backbone/stage3/stage3.2/branches.1/branches.1.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -11217,7 +11217,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>onnx::Relu_2176</t>
+          <t>/backbone/stage3/stage3.2/branches.1/branches.1.0/Add_output_0</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -11277,7 +11277,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>input.868</t>
+          <t>/backbone/stage3/stage3.2/branches.1/branches.1.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -11337,7 +11337,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>onnx::Add_3275</t>
+          <t>/backbone/stage3/stage3.2/branches.1/branches.1.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>onnx::Relu_2183</t>
+          <t>/backbone/stage3/stage3.2/branches.1/branches.1.1/Add_output_0</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -11457,7 +11457,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>input.884</t>
+          <t>/backbone/stage3/stage3.2/branches.1/branches.1.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -11517,7 +11517,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>onnx::Add_3281</t>
+          <t>/backbone/stage3/stage3.2/branches.1/branches.1.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -11577,7 +11577,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>onnx::Relu_2190</t>
+          <t>/backbone/stage3/stage3.2/branches.1/branches.1.2/Add_output_0</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -11637,7 +11637,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>input.900</t>
+          <t>/backbone/stage3/stage3.2/branches.1/branches.1.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -11697,7 +11697,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>onnx::Add_3287</t>
+          <t>/backbone/stage3/stage3.2/branches.1/branches.1.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>onnx::Relu_2197</t>
+          <t>/backbone/stage3/stage3.2/branches.1/branches.1.3/Add_output_0</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -11817,7 +11817,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>input.980</t>
+          <t>/backbone/stage3/stage3.2/fuse_layers.0.1/fuse_layers.0.1.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -11877,7 +11877,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>onnx::Add_2235</t>
+          <t>/backbone/stage3/stage3.2/fuse_layers.0.1/fuse_layers.0.1.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>onnx::Add_2236</t>
+          <t>/backbone/stage3/stage3.2/Add_1_output_0</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -11997,7 +11997,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>onnx::Add_2250</t>
+          <t>/backbone/stage3/stage3.2/Add_4_output_0</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -12057,7 +12057,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>onnx::Add_3332</t>
+          <t>/backbone/stage3/stage3.2/fuse_layers.2.1/fuse_layers.2.1.0/fuse_layers.2.1.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -12117,7 +12117,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>onnx::Add_2269</t>
+          <t>/backbone/stage3/stage3.2/Add_7_output_0</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -12177,7 +12177,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>input.780</t>
+          <t>/backbone/stage3/stage3.1/Add_8_output_0</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -12237,7 +12237,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>input.916</t>
+          <t>/backbone/stage3/stage3.2/branches.2/branches.2.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -12297,7 +12297,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>onnx::Add_3293</t>
+          <t>/backbone/stage3/stage3.2/branches.2/branches.2.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -12357,7 +12357,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>onnx::Relu_2204</t>
+          <t>/backbone/stage3/stage3.2/branches.2/branches.2.0/Add_output_0</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -12417,7 +12417,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>input.932</t>
+          <t>/backbone/stage3/stage3.2/branches.2/branches.2.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -12477,7 +12477,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>onnx::Add_3299</t>
+          <t>/backbone/stage3/stage3.2/branches.2/branches.2.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -12537,7 +12537,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>onnx::Relu_2211</t>
+          <t>/backbone/stage3/stage3.2/branches.2/branches.2.1/Add_output_0</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -12597,7 +12597,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>input.948</t>
+          <t>/backbone/stage3/stage3.2/branches.2/branches.2.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -12657,7 +12657,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>onnx::Add_3305</t>
+          <t>/backbone/stage3/stage3.2/branches.2/branches.2.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>onnx::Relu_2218</t>
+          <t>/backbone/stage3/stage3.2/branches.2/branches.2.2/Add_output_0</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -12777,7 +12777,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>input.964</t>
+          <t>/backbone/stage3/stage3.2/branches.2/branches.2.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -12837,7 +12837,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>onnx::Add_3311</t>
+          <t>/backbone/stage3/stage3.2/branches.2/branches.2.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -12897,7 +12897,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>onnx::Relu_2225</t>
+          <t>/backbone/stage3/stage3.2/branches.2/branches.2.3/Add_output_0</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -12957,7 +12957,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>input.988</t>
+          <t>/backbone/stage3/stage3.2/fuse_layers.0.2/fuse_layers.0.2.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -13017,7 +13017,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>onnx::Add_2243</t>
+          <t>/backbone/stage3/stage3.2/fuse_layers.0.2/fuse_layers.0.2.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -13077,7 +13077,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>input.992</t>
+          <t>/backbone/stage3/stage3.2/Add_2_output_0</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -13137,7 +13137,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>input.1036</t>
+          <t>/backbone/stage3/stage3.3/branches.0/branches.0.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -13197,7 +13197,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>onnx::Add_3338</t>
+          <t>/backbone/stage3/stage3.3/branches.0/branches.0.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -13257,7 +13257,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>onnx::Relu_2277</t>
+          <t>/backbone/stage3/stage3.3/branches.0/branches.0.0/Add_output_0</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -13317,7 +13317,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>input.1052</t>
+          <t>/backbone/stage3/stage3.3/branches.0/branches.0.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -13377,7 +13377,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>onnx::Add_3344</t>
+          <t>/backbone/stage3/stage3.3/branches.0/branches.0.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -13437,7 +13437,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>onnx::Relu_2284</t>
+          <t>/backbone/stage3/stage3.3/branches.0/branches.0.1/Add_output_0</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>input.1068</t>
+          <t>/backbone/stage3/stage3.3/branches.0/branches.0.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -13557,7 +13557,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>onnx::Add_3350</t>
+          <t>/backbone/stage3/stage3.3/branches.0/branches.0.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -13617,7 +13617,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>onnx::Relu_2291</t>
+          <t>/backbone/stage3/stage3.3/branches.0/branches.0.2/Add_output_0</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -13677,7 +13677,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>input.1084</t>
+          <t>/backbone/stage3/stage3.3/branches.0/branches.0.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -13737,7 +13737,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>onnx::Add_3356</t>
+          <t>/backbone/stage3/stage3.3/branches.0/branches.0.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>onnx::Relu_2298</t>
+          <t>/backbone/stage3/stage3.3/branches.0/branches.0.3/Add_output_0</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -13857,7 +13857,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>onnx::Add_3413</t>
+          <t>/backbone/stage3/stage3.3/fuse_layers.1.0/fuse_layers.1.0.0/fuse_layers.1.0.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -13917,7 +13917,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>input.1264</t>
+          <t>/backbone/stage3/stage3.3/fuse_layers.2.0/fuse_layers.2.0.0/fuse_layers.2.0.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -13977,7 +13977,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>onnx::Add_3422</t>
+          <t>/backbone/stage3/stage3.3/fuse_layers.2.0/fuse_layers.2.0.1/fuse_layers.2.0.1.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -14037,7 +14037,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>input.1004</t>
+          <t>/backbone/stage3/stage3.2/fuse_layers.1.2/fuse_layers.1.2.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -14097,7 +14097,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>onnx::Add_2257</t>
+          <t>/backbone/stage3/stage3.2/fuse_layers.1.2/fuse_layers.1.2.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -14157,7 +14157,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>input.1008</t>
+          <t>/backbone/stage3/stage3.2/Add_5_output_0</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -14217,7 +14217,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>input.1100</t>
+          <t>/backbone/stage3/stage3.3/branches.1/branches.1.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -14277,7 +14277,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>onnx::Add_3362</t>
+          <t>/backbone/stage3/stage3.3/branches.1/branches.1.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -14337,7 +14337,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>onnx::Relu_2305</t>
+          <t>/backbone/stage3/stage3.3/branches.1/branches.1.0/Add_output_0</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -14397,7 +14397,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>input.1116</t>
+          <t>/backbone/stage3/stage3.3/branches.1/branches.1.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -14457,7 +14457,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>onnx::Add_3368</t>
+          <t>/backbone/stage3/stage3.3/branches.1/branches.1.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -14517,7 +14517,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>onnx::Relu_2312</t>
+          <t>/backbone/stage3/stage3.3/branches.1/branches.1.1/Add_output_0</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -14577,7 +14577,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>input.1132</t>
+          <t>/backbone/stage3/stage3.3/branches.1/branches.1.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -14637,7 +14637,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>onnx::Add_3374</t>
+          <t>/backbone/stage3/stage3.3/branches.1/branches.1.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -14697,7 +14697,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>onnx::Relu_2319</t>
+          <t>/backbone/stage3/stage3.3/branches.1/branches.1.2/Add_output_0</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -14757,7 +14757,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>input.1148</t>
+          <t>/backbone/stage3/stage3.3/branches.1/branches.1.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>onnx::Add_3380</t>
+          <t>/backbone/stage3/stage3.3/branches.1/branches.1.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -14877,7 +14877,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>onnx::Relu_2326</t>
+          <t>/backbone/stage3/stage3.3/branches.1/branches.1.3/Add_output_0</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -14937,7 +14937,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>input.1228</t>
+          <t>/backbone/stage3/stage3.3/fuse_layers.0.1/fuse_layers.0.1.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -14997,7 +14997,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>onnx::Add_2364</t>
+          <t>/backbone/stage3/stage3.3/fuse_layers.0.1/fuse_layers.0.1.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -15057,7 +15057,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>onnx::Add_2365</t>
+          <t>/backbone/stage3/stage3.3/Add_1_output_0</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -15117,7 +15117,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>onnx::Add_2379</t>
+          <t>/backbone/stage3/stage3.3/Add_4_output_0</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -15177,7 +15177,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>onnx::Add_3425</t>
+          <t>/backbone/stage3/stage3.3/fuse_layers.2.1/fuse_layers.2.1.0/fuse_layers.2.1.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -15237,7 +15237,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>onnx::Add_2398</t>
+          <t>/backbone/stage3/stage3.3/Add_7_output_0</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -15297,7 +15297,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>input.1028</t>
+          <t>/backbone/stage3/stage3.2/Add_8_output_0</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -15357,7 +15357,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>input.1164</t>
+          <t>/backbone/stage3/stage3.3/branches.2/branches.2.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -15417,7 +15417,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>onnx::Add_3386</t>
+          <t>/backbone/stage3/stage3.3/branches.2/branches.2.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -15477,7 +15477,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>onnx::Relu_2333</t>
+          <t>/backbone/stage3/stage3.3/branches.2/branches.2.0/Add_output_0</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -15537,7 +15537,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>input.1180</t>
+          <t>/backbone/stage3/stage3.3/branches.2/branches.2.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -15597,7 +15597,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>onnx::Add_3392</t>
+          <t>/backbone/stage3/stage3.3/branches.2/branches.2.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -15657,7 +15657,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>onnx::Relu_2340</t>
+          <t>/backbone/stage3/stage3.3/branches.2/branches.2.1/Add_output_0</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -15717,7 +15717,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>input.1196</t>
+          <t>/backbone/stage3/stage3.3/branches.2/branches.2.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -15777,7 +15777,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>onnx::Add_3398</t>
+          <t>/backbone/stage3/stage3.3/branches.2/branches.2.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -15837,7 +15837,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>onnx::Relu_2347</t>
+          <t>/backbone/stage3/stage3.3/branches.2/branches.2.2/Add_output_0</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -15897,7 +15897,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>input.1212</t>
+          <t>/backbone/stage3/stage3.3/branches.2/branches.2.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -15957,7 +15957,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>onnx::Add_3404</t>
+          <t>/backbone/stage3/stage3.3/branches.2/branches.2.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -16017,7 +16017,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>onnx::Relu_2354</t>
+          <t>/backbone/stage3/stage3.3/branches.2/branches.2.3/Add_output_0</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -16077,7 +16077,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>input.1236</t>
+          <t>/backbone/stage3/stage3.3/fuse_layers.0.2/fuse_layers.0.2.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -16137,7 +16137,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>onnx::Add_2372</t>
+          <t>/backbone/stage3/stage3.3/fuse_layers.0.2/fuse_layers.0.2.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -16197,7 +16197,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>input.1240</t>
+          <t>/backbone/stage3/stage3.3/Add_2_output_0</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -16257,7 +16257,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>input.1292</t>
+          <t>/backbone/stage4/stage4.0/branches.0/branches.0.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -16317,7 +16317,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>onnx::Add_3434</t>
+          <t>/backbone/stage4/stage4.0/branches.0/branches.0.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -16377,7 +16377,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>onnx::Relu_2409</t>
+          <t>/backbone/stage4/stage4.0/branches.0/branches.0.0/Add_output_0</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -16437,7 +16437,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>input.1308</t>
+          <t>/backbone/stage4/stage4.0/branches.0/branches.0.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -16497,7 +16497,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>onnx::Add_3440</t>
+          <t>/backbone/stage4/stage4.0/branches.0/branches.0.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -16557,7 +16557,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>onnx::Relu_2416</t>
+          <t>/backbone/stage4/stage4.0/branches.0/branches.0.1/Add_output_0</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -16617,7 +16617,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>input.1324</t>
+          <t>/backbone/stage4/stage4.0/branches.0/branches.0.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -16677,7 +16677,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>onnx::Add_3446</t>
+          <t>/backbone/stage4/stage4.0/branches.0/branches.0.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -16737,7 +16737,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>onnx::Relu_2423</t>
+          <t>/backbone/stage4/stage4.0/branches.0/branches.0.2/Add_output_0</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -16797,7 +16797,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>input.1340</t>
+          <t>/backbone/stage4/stage4.0/branches.0/branches.0.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -16857,7 +16857,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>onnx::Add_3452</t>
+          <t>/backbone/stage4/stage4.0/branches.0/branches.0.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -16917,7 +16917,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>onnx::Relu_2430</t>
+          <t>/backbone/stage4/stage4.0/branches.0/branches.0.3/Add_output_0</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -16977,7 +16977,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>onnx::Add_3536</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.1.0/fuse_layers.1.0.0/fuse_layers.1.0.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -17037,7 +17037,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>input.1592</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.2.0/fuse_layers.2.0.0/fuse_layers.2.0.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -17097,7 +17097,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>onnx::Add_3548</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.2.0/fuse_layers.2.0.1/fuse_layers.2.0.1.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -17157,7 +17157,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>input.1616</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.3.0/fuse_layers.3.0.0/fuse_layers.3.0.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -17217,7 +17217,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>input.1624</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.3.0/fuse_layers.3.0.1/fuse_layers.3.0.1.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -17277,7 +17277,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>onnx::Add_3563</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.3.0/fuse_layers.3.0.2/fuse_layers.3.0.2.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -17337,7 +17337,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>input.1252</t>
+          <t>/backbone/stage3/stage3.3/fuse_layers.1.2/fuse_layers.1.2.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -17397,7 +17397,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>onnx::Add_2386</t>
+          <t>/backbone/stage3/stage3.3/fuse_layers.1.2/fuse_layers.1.2.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -17457,7 +17457,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>input.1256</t>
+          <t>/backbone/stage3/stage3.3/Add_5_output_0</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -17517,7 +17517,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>input.1356</t>
+          <t>/backbone/stage4/stage4.0/branches.1/branches.1.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -17577,7 +17577,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>onnx::Add_3458</t>
+          <t>/backbone/stage4/stage4.0/branches.1/branches.1.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -17637,7 +17637,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>onnx::Relu_2437</t>
+          <t>/backbone/stage4/stage4.0/branches.1/branches.1.0/Add_output_0</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -17697,7 +17697,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>input.1372</t>
+          <t>/backbone/stage4/stage4.0/branches.1/branches.1.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -17757,7 +17757,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>onnx::Add_3464</t>
+          <t>/backbone/stage4/stage4.0/branches.1/branches.1.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -17817,7 +17817,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>onnx::Relu_2444</t>
+          <t>/backbone/stage4/stage4.0/branches.1/branches.1.1/Add_output_0</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -17877,7 +17877,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>input.1388</t>
+          <t>/backbone/stage4/stage4.0/branches.1/branches.1.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -17937,7 +17937,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>onnx::Add_3470</t>
+          <t>/backbone/stage4/stage4.0/branches.1/branches.1.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -17997,7 +17997,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>onnx::Relu_2451</t>
+          <t>/backbone/stage4/stage4.0/branches.1/branches.1.2/Add_output_0</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -18057,7 +18057,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>input.1404</t>
+          <t>/backbone/stage4/stage4.0/branches.1/branches.1.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -18117,7 +18117,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>onnx::Add_3476</t>
+          <t>/backbone/stage4/stage4.0/branches.1/branches.1.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -18177,7 +18177,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>onnx::Relu_2458</t>
+          <t>/backbone/stage4/stage4.0/branches.1/branches.1.3/Add_output_0</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -18237,7 +18237,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>input.1548</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.0.1/fuse_layers.0.1.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -18297,7 +18297,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>onnx::Add_2524</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.0.1/fuse_layers.0.1.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -18357,7 +18357,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>onnx::Add_2525</t>
+          <t>/backbone/stage4/stage4.0/Add_1_output_0</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -18417,7 +18417,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>onnx::Add_2547</t>
+          <t>/backbone/stage4/stage4.0/Add_5_output_0</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -18477,7 +18477,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>onnx::Add_3551</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.2.1/fuse_layers.2.1.0/fuse_layers.2.1.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -18537,7 +18537,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>onnx::Add_2574</t>
+          <t>/backbone/stage4/stage4.0/Add_9_output_0</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -18597,7 +18597,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>input.1636</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.3.1/fuse_layers.3.1.0/fuse_layers.3.1.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -18657,7 +18657,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>onnx::Add_3569</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.3.1/fuse_layers.3.1.1/fuse_layers.3.1.1.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -18717,7 +18717,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>onnx::Add_2600</t>
+          <t>/backbone/stage4/stage4.0/Add_13_output_0</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -18777,7 +18777,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>input.1276</t>
+          <t>/backbone/stage3/stage3.3/Add_8_output_0</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -18837,7 +18837,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>input.1284</t>
+          <t>/backbone/transition3.3/transition3.3.0/transition3.3.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -18897,7 +18897,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>input.1484</t>
+          <t>/backbone/stage4/stage4.0/branches.3/branches.3.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -18957,7 +18957,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>onnx::Add_3506</t>
+          <t>/backbone/stage4/stage4.0/branches.3/branches.3.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -19017,7 +19017,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>onnx::Relu_2493</t>
+          <t>/backbone/stage4/stage4.0/branches.3/branches.3.0/Add_output_0</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -19077,7 +19077,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>input.1500</t>
+          <t>/backbone/stage4/stage4.0/branches.3/branches.3.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -19137,7 +19137,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>onnx::Add_3512</t>
+          <t>/backbone/stage4/stage4.0/branches.3/branches.3.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -19197,7 +19197,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>onnx::Relu_2500</t>
+          <t>/backbone/stage4/stage4.0/branches.3/branches.3.1/Add_output_0</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -19257,7 +19257,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>input.1516</t>
+          <t>/backbone/stage4/stage4.0/branches.3/branches.3.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -19317,7 +19317,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>onnx::Add_3518</t>
+          <t>/backbone/stage4/stage4.0/branches.3/branches.3.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -19377,7 +19377,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>onnx::Relu_2507</t>
+          <t>/backbone/stage4/stage4.0/branches.3/branches.3.2/Add_output_0</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -19437,7 +19437,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>input.1532</t>
+          <t>/backbone/stage4/stage4.0/branches.3/branches.3.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -19497,7 +19497,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>onnx::Add_3524</t>
+          <t>/backbone/stage4/stage4.0/branches.3/branches.3.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -19557,7 +19557,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>onnx::Relu_2514</t>
+          <t>/backbone/stage4/stage4.0/branches.3/branches.3.3/Add_output_0</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -19617,7 +19617,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>input.1564</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.0.3/fuse_layers.0.3.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -19677,7 +19677,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>onnx::Add_2540</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.0.3/fuse_layers.0.3.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -19737,7 +19737,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>input.1584</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.1.3/fuse_layers.1.3.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -19797,7 +19797,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>onnx::Add_2562</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.1.3/fuse_layers.1.3.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -19857,7 +19857,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>input.1608</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.2.3/fuse_layers.2.3.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -19917,7 +19917,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>onnx::Add_2582</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.2.3/fuse_layers.2.3.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -19977,7 +19977,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>input.1420</t>
+          <t>/backbone/stage4/stage4.0/branches.2/branches.2.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -20037,7 +20037,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>onnx::Add_3482</t>
+          <t>/backbone/stage4/stage4.0/branches.2/branches.2.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -20097,7 +20097,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>onnx::Relu_2465</t>
+          <t>/backbone/stage4/stage4.0/branches.2/branches.2.0/Add_output_0</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -20157,7 +20157,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>input.1436</t>
+          <t>/backbone/stage4/stage4.0/branches.2/branches.2.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -20217,7 +20217,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>onnx::Add_3488</t>
+          <t>/backbone/stage4/stage4.0/branches.2/branches.2.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -20277,7 +20277,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>onnx::Relu_2472</t>
+          <t>/backbone/stage4/stage4.0/branches.2/branches.2.1/Add_output_0</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -20337,7 +20337,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>input.1452</t>
+          <t>/backbone/stage4/stage4.0/branches.2/branches.2.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -20397,7 +20397,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>onnx::Add_3494</t>
+          <t>/backbone/stage4/stage4.0/branches.2/branches.2.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -20457,7 +20457,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>onnx::Relu_2479</t>
+          <t>/backbone/stage4/stage4.0/branches.2/branches.2.2/Add_output_0</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -20517,7 +20517,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>input.1468</t>
+          <t>/backbone/stage4/stage4.0/branches.2/branches.2.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -20577,7 +20577,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>onnx::Add_3500</t>
+          <t>/backbone/stage4/stage4.0/branches.2/branches.2.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -20637,7 +20637,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>onnx::Relu_2486</t>
+          <t>/backbone/stage4/stage4.0/branches.2/branches.2.3/Add_output_0</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -20697,7 +20697,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>input.1556</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.0.2/fuse_layers.0.2.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -20757,7 +20757,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>onnx::Add_2532</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.0.2/fuse_layers.0.2.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -20817,7 +20817,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>onnx::Add_2533</t>
+          <t>/backbone/stage4/stage4.0/Add_2_output_0</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -20877,7 +20877,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>onnx::Relu_2541</t>
+          <t>/backbone/stage4/stage4.0/Add_3_output_0</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -20937,7 +20937,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>input.1652</t>
+          <t>/backbone/stage4/stage4.1/branches.0/branches.0.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -20997,7 +20997,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>onnx::Add_3578</t>
+          <t>/backbone/stage4/stage4.1/branches.0/branches.0.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -21057,7 +21057,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>onnx::Relu_2611</t>
+          <t>/backbone/stage4/stage4.1/branches.0/branches.0.0/Add_output_0</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -21117,7 +21117,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>input.1668</t>
+          <t>/backbone/stage4/stage4.1/branches.0/branches.0.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -21177,7 +21177,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>onnx::Add_3584</t>
+          <t>/backbone/stage4/stage4.1/branches.0/branches.0.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -21237,7 +21237,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>onnx::Relu_2618</t>
+          <t>/backbone/stage4/stage4.1/branches.0/branches.0.1/Add_output_0</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -21297,7 +21297,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>input.1684</t>
+          <t>/backbone/stage4/stage4.1/branches.0/branches.0.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -21357,7 +21357,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>onnx::Add_3590</t>
+          <t>/backbone/stage4/stage4.1/branches.0/branches.0.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -21417,7 +21417,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>onnx::Relu_2625</t>
+          <t>/backbone/stage4/stage4.1/branches.0/branches.0.2/Add_output_0</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -21477,7 +21477,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>input.1700</t>
+          <t>/backbone/stage4/stage4.1/branches.0/branches.0.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -21537,7 +21537,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>onnx::Add_3596</t>
+          <t>/backbone/stage4/stage4.1/branches.0/branches.0.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -21597,7 +21597,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>onnx::Relu_2632</t>
+          <t>/backbone/stage4/stage4.1/branches.0/branches.0.3/Add_output_0</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -21657,7 +21657,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>onnx::Add_3680</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.1.0/fuse_layers.1.0.0/fuse_layers.1.0.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -21717,7 +21717,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>input.1952</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.2.0/fuse_layers.2.0.0/fuse_layers.2.0.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -21777,7 +21777,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>onnx::Add_3692</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.2.0/fuse_layers.2.0.1/fuse_layers.2.0.1.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -21837,7 +21837,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>input.1976</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.3.0/fuse_layers.3.0.0/fuse_layers.3.0.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -21897,7 +21897,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>input.1984</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.3.0/fuse_layers.3.0.1/fuse_layers.3.0.1.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -21957,7 +21957,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>onnx::Add_3707</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.3.0/fuse_layers.3.0.2/fuse_layers.3.0.2.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -22017,7 +22017,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>input.1576</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.1.2/fuse_layers.1.2.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -22077,7 +22077,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>onnx::Add_2554</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.1.2/fuse_layers.1.2.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -22137,7 +22137,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>onnx::Add_2555</t>
+          <t>/backbone/stage4/stage4.0/Add_6_output_0</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -22197,7 +22197,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>onnx::Relu_2563</t>
+          <t>/backbone/stage4/stage4.0/Add_7_output_0</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -22257,7 +22257,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>input.1716</t>
+          <t>/backbone/stage4/stage4.1/branches.1/branches.1.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -22317,7 +22317,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>onnx::Add_3602</t>
+          <t>/backbone/stage4/stage4.1/branches.1/branches.1.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -22377,7 +22377,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>onnx::Relu_2639</t>
+          <t>/backbone/stage4/stage4.1/branches.1/branches.1.0/Add_output_0</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -22437,7 +22437,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>input.1732</t>
+          <t>/backbone/stage4/stage4.1/branches.1/branches.1.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -22497,7 +22497,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>onnx::Add_3608</t>
+          <t>/backbone/stage4/stage4.1/branches.1/branches.1.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -22557,7 +22557,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>onnx::Relu_2646</t>
+          <t>/backbone/stage4/stage4.1/branches.1/branches.1.1/Add_output_0</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -22617,7 +22617,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>input.1748</t>
+          <t>/backbone/stage4/stage4.1/branches.1/branches.1.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -22677,7 +22677,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>onnx::Add_3614</t>
+          <t>/backbone/stage4/stage4.1/branches.1/branches.1.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -22737,7 +22737,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>onnx::Relu_2653</t>
+          <t>/backbone/stage4/stage4.1/branches.1/branches.1.2/Add_output_0</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -22797,7 +22797,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>input.1764</t>
+          <t>/backbone/stage4/stage4.1/branches.1/branches.1.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -22857,7 +22857,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>onnx::Add_3620</t>
+          <t>/backbone/stage4/stage4.1/branches.1/branches.1.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -22917,7 +22917,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>onnx::Relu_2660</t>
+          <t>/backbone/stage4/stage4.1/branches.1/branches.1.3/Add_output_0</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -22977,7 +22977,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>input.1908</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.0.1/fuse_layers.0.1.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -23037,7 +23037,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>onnx::Add_2726</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.0.1/fuse_layers.0.1.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -23097,7 +23097,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>onnx::Add_2727</t>
+          <t>/backbone/stage4/stage4.1/Add_1_output_0</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -23157,7 +23157,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>onnx::Add_2749</t>
+          <t>/backbone/stage4/stage4.1/Add_5_output_0</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -23217,7 +23217,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>onnx::Add_3695</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.2.1/fuse_layers.2.1.0/fuse_layers.2.1.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -23277,7 +23277,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>onnx::Add_2776</t>
+          <t>/backbone/stage4/stage4.1/Add_9_output_0</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -23337,7 +23337,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>input.1996</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.3.1/fuse_layers.3.1.0/fuse_layers.3.1.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -23397,7 +23397,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>onnx::Add_3713</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.3.1/fuse_layers.3.1.1/fuse_layers.3.1.1.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -23457,7 +23457,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>onnx::Add_2802</t>
+          <t>/backbone/stage4/stage4.1/Add_13_output_0</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -23517,7 +23517,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>onnx::Add_2575</t>
+          <t>/backbone/stage4/stage4.0/Add_10_output_0</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -23577,7 +23577,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>onnx::Relu_2583</t>
+          <t>/backbone/stage4/stage4.0/Add_11_output_0</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -23637,7 +23637,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>input.1780</t>
+          <t>/backbone/stage4/stage4.1/branches.2/branches.2.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -23697,7 +23697,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>onnx::Add_3626</t>
+          <t>/backbone/stage4/stage4.1/branches.2/branches.2.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -23757,7 +23757,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>onnx::Relu_2667</t>
+          <t>/backbone/stage4/stage4.1/branches.2/branches.2.0/Add_output_0</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -23817,7 +23817,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>input.1796</t>
+          <t>/backbone/stage4/stage4.1/branches.2/branches.2.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -23877,7 +23877,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>onnx::Add_3632</t>
+          <t>/backbone/stage4/stage4.1/branches.2/branches.2.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -23937,7 +23937,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>onnx::Relu_2674</t>
+          <t>/backbone/stage4/stage4.1/branches.2/branches.2.1/Add_output_0</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -23997,7 +23997,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>input.1812</t>
+          <t>/backbone/stage4/stage4.1/branches.2/branches.2.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -24057,7 +24057,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>onnx::Add_3638</t>
+          <t>/backbone/stage4/stage4.1/branches.2/branches.2.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -24117,7 +24117,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>onnx::Relu_2681</t>
+          <t>/backbone/stage4/stage4.1/branches.2/branches.2.2/Add_output_0</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -24177,7 +24177,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>input.1828</t>
+          <t>/backbone/stage4/stage4.1/branches.2/branches.2.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -24237,7 +24237,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>onnx::Add_3644</t>
+          <t>/backbone/stage4/stage4.1/branches.2/branches.2.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -24297,7 +24297,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>onnx::Relu_2688</t>
+          <t>/backbone/stage4/stage4.1/branches.2/branches.2.3/Add_output_0</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -24357,7 +24357,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>input.1916</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.0.2/fuse_layers.0.2.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -24417,7 +24417,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>onnx::Add_2734</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.0.2/fuse_layers.0.2.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -24477,7 +24477,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>onnx::Add_2735</t>
+          <t>/backbone/stage4/stage4.1/Add_2_output_0</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -24537,7 +24537,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>input.1936</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.1.2/fuse_layers.1.2.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -24597,7 +24597,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>onnx::Add_2756</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.1.2/fuse_layers.1.2.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -24657,7 +24657,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>onnx::Add_2757</t>
+          <t>/backbone/stage4/stage4.1/Add_6_output_0</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -24717,7 +24717,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>onnx::Add_2777</t>
+          <t>/backbone/stage4/stage4.1/Add_10_output_0</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -24777,7 +24777,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>onnx::Add_3716</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.3.2/fuse_layers.3.2.0/fuse_layers.3.2.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -24837,7 +24837,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>onnx::Add_2805</t>
+          <t>/backbone/stage4/stage4.1/Add_14_output_0</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -24897,7 +24897,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>onnx::Add_3572</t>
+          <t>/backbone/stage4/stage4.0/fuse_layers.3.2/fuse_layers.3.2.0/fuse_layers.3.2.0.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -24957,7 +24957,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>onnx::Add_2603</t>
+          <t>/backbone/stage4/stage4.0/Add_14_output_0</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -25017,7 +25017,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>onnx::Relu_2604</t>
+          <t>/backbone/stage4/stage4.0/Add_15_output_0</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -25077,7 +25077,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>input.1844</t>
+          <t>/backbone/stage4/stage4.1/branches.3/branches.3.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -25137,7 +25137,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>onnx::Add_3650</t>
+          <t>/backbone/stage4/stage4.1/branches.3/branches.3.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -25197,7 +25197,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>onnx::Relu_2695</t>
+          <t>/backbone/stage4/stage4.1/branches.3/branches.3.0/Add_output_0</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -25257,7 +25257,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>input.1860</t>
+          <t>/backbone/stage4/stage4.1/branches.3/branches.3.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -25317,7 +25317,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>onnx::Add_3656</t>
+          <t>/backbone/stage4/stage4.1/branches.3/branches.3.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -25377,7 +25377,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>onnx::Relu_2702</t>
+          <t>/backbone/stage4/stage4.1/branches.3/branches.3.1/Add_output_0</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -25437,7 +25437,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>input.1876</t>
+          <t>/backbone/stage4/stage4.1/branches.3/branches.3.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -25497,7 +25497,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>onnx::Add_3662</t>
+          <t>/backbone/stage4/stage4.1/branches.3/branches.3.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -25557,7 +25557,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>onnx::Relu_2709</t>
+          <t>/backbone/stage4/stage4.1/branches.3/branches.3.2/Add_output_0</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -25617,7 +25617,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>input.1892</t>
+          <t>/backbone/stage4/stage4.1/branches.3/branches.3.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -25677,7 +25677,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>onnx::Add_3668</t>
+          <t>/backbone/stage4/stage4.1/branches.3/branches.3.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -25737,7 +25737,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>onnx::Relu_2716</t>
+          <t>/backbone/stage4/stage4.1/branches.3/branches.3.3/Add_output_0</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -25797,7 +25797,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>input.1924</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.0.3/fuse_layers.0.3.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -25857,7 +25857,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>onnx::Add_2742</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.0.3/fuse_layers.0.3.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -25917,7 +25917,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>onnx::Relu_2743</t>
+          <t>/backbone/stage4/stage4.1/Add_3_output_0</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -25977,7 +25977,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>input.2012</t>
+          <t>/backbone/stage4/stage4.2/branches.0/branches.0.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -26037,7 +26037,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>onnx::Add_3722</t>
+          <t>/backbone/stage4/stage4.2/branches.0/branches.0.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -26097,7 +26097,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>onnx::Relu_2813</t>
+          <t>/backbone/stage4/stage4.2/branches.0/branches.0.0/Add_output_0</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -26157,7 +26157,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>input.2028</t>
+          <t>/backbone/stage4/stage4.2/branches.0/branches.0.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -26217,7 +26217,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>onnx::Add_3728</t>
+          <t>/backbone/stage4/stage4.2/branches.0/branches.0.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -26277,7 +26277,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>onnx::Relu_2820</t>
+          <t>/backbone/stage4/stage4.2/branches.0/branches.0.1/Add_output_0</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -26337,7 +26337,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>input.2044</t>
+          <t>/backbone/stage4/stage4.2/branches.0/branches.0.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -26397,7 +26397,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>onnx::Add_3734</t>
+          <t>/backbone/stage4/stage4.2/branches.0/branches.0.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -26457,7 +26457,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>onnx::Relu_2827</t>
+          <t>/backbone/stage4/stage4.2/branches.0/branches.0.2/Add_output_0</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -26517,7 +26517,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>input.2060</t>
+          <t>/backbone/stage4/stage4.2/branches.0/branches.0.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -26577,7 +26577,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>onnx::Add_3740</t>
+          <t>/backbone/stage4/stage4.2/branches.0/branches.0.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -26637,7 +26637,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>onnx::Relu_2834</t>
+          <t>/backbone/stage4/stage4.2/branches.0/branches.0.3/Add_output_0</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -26697,7 +26697,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>input.1944</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.1.3/fuse_layers.1.3.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -26757,7 +26757,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>onnx::Add_2764</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.1.3/fuse_layers.1.3.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -26817,7 +26817,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>onnx::Relu_2765</t>
+          <t>/backbone/stage4/stage4.1/Add_7_output_0</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -26877,7 +26877,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>input.2072</t>
+          <t>/backbone/stage4/stage4.2/branches.1/branches.1.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -26937,7 +26937,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>onnx::Add_3746</t>
+          <t>/backbone/stage4/stage4.2/branches.1/branches.1.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -26997,7 +26997,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>onnx::Relu_2841</t>
+          <t>/backbone/stage4/stage4.2/branches.1/branches.1.0/Add_output_0</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -27057,7 +27057,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>input.2088</t>
+          <t>/backbone/stage4/stage4.2/branches.1/branches.1.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -27117,7 +27117,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>onnx::Add_3752</t>
+          <t>/backbone/stage4/stage4.2/branches.1/branches.1.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -27177,7 +27177,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>onnx::Relu_2848</t>
+          <t>/backbone/stage4/stage4.2/branches.1/branches.1.1/Add_output_0</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -27237,7 +27237,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>input.2104</t>
+          <t>/backbone/stage4/stage4.2/branches.1/branches.1.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -27297,7 +27297,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>onnx::Add_3758</t>
+          <t>/backbone/stage4/stage4.2/branches.1/branches.1.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -27357,7 +27357,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>onnx::Relu_2855</t>
+          <t>/backbone/stage4/stage4.2/branches.1/branches.1.2/Add_output_0</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -27417,7 +27417,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>input.2120</t>
+          <t>/backbone/stage4/stage4.2/branches.1/branches.1.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -27477,7 +27477,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>onnx::Add_3764</t>
+          <t>/backbone/stage4/stage4.2/branches.1/branches.1.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -27537,7 +27537,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>onnx::Relu_2862</t>
+          <t>/backbone/stage4/stage4.2/branches.1/branches.1.3/Add_output_0</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -27597,7 +27597,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>input.2264</t>
+          <t>/backbone/stage4/stage4.2/fuse_layers.0.1/fuse_layers.0.1.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -27657,7 +27657,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>onnx::Add_2928</t>
+          <t>/backbone/stage4/stage4.2/fuse_layers.0.1/fuse_layers.0.1.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -27717,7 +27717,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>onnx::Add_2929</t>
+          <t>/backbone/stage4/stage4.2/Add_1_output_0</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -27777,7 +27777,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>input.1968</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.2.3/fuse_layers.2.3.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -27837,7 +27837,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>onnx::Add_2784</t>
+          <t>/backbone/stage4/stage4.1/fuse_layers.2.3/fuse_layers.2.3.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -27897,7 +27897,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>onnx::Relu_2785</t>
+          <t>/backbone/stage4/stage4.1/Add_11_output_0</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -27957,7 +27957,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>input.2136</t>
+          <t>/backbone/stage4/stage4.2/branches.2/branches.2.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -28017,7 +28017,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>onnx::Add_3770</t>
+          <t>/backbone/stage4/stage4.2/branches.2/branches.2.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -28077,7 +28077,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>onnx::Relu_2869</t>
+          <t>/backbone/stage4/stage4.2/branches.2/branches.2.0/Add_output_0</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -28137,7 +28137,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>input.2152</t>
+          <t>/backbone/stage4/stage4.2/branches.2/branches.2.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -28197,7 +28197,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>onnx::Add_3776</t>
+          <t>/backbone/stage4/stage4.2/branches.2/branches.2.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -28257,7 +28257,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>onnx::Relu_2876</t>
+          <t>/backbone/stage4/stage4.2/branches.2/branches.2.1/Add_output_0</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -28317,7 +28317,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>input.2168</t>
+          <t>/backbone/stage4/stage4.2/branches.2/branches.2.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -28377,7 +28377,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>onnx::Add_3782</t>
+          <t>/backbone/stage4/stage4.2/branches.2/branches.2.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -28437,7 +28437,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>onnx::Relu_2883</t>
+          <t>/backbone/stage4/stage4.2/branches.2/branches.2.2/Add_output_0</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -28497,7 +28497,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>input.2184</t>
+          <t>/backbone/stage4/stage4.2/branches.2/branches.2.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -28557,7 +28557,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>onnx::Add_3788</t>
+          <t>/backbone/stage4/stage4.2/branches.2/branches.2.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -28617,7 +28617,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>onnx::Relu_2890</t>
+          <t>/backbone/stage4/stage4.2/branches.2/branches.2.3/Add_output_0</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -28677,7 +28677,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>input.2272</t>
+          <t>/backbone/stage4/stage4.2/fuse_layers.0.2/fuse_layers.0.2.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -28737,7 +28737,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>onnx::Add_2936</t>
+          <t>/backbone/stage4/stage4.2/fuse_layers.0.2/fuse_layers.0.2.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -28797,7 +28797,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>onnx::Add_2937</t>
+          <t>/backbone/stage4/stage4.2/Add_2_output_0</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -28857,7 +28857,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>onnx::Relu_2806</t>
+          <t>/backbone/stage4/stage4.1/Add_15_output_0</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -28917,7 +28917,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>input.2200</t>
+          <t>/backbone/stage4/stage4.2/branches.3/branches.3.0/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -28977,7 +28977,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>onnx::Add_3794</t>
+          <t>/backbone/stage4/stage4.2/branches.3/branches.3.0/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -29037,7 +29037,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>onnx::Relu_2897</t>
+          <t>/backbone/stage4/stage4.2/branches.3/branches.3.0/Add_output_0</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -29097,7 +29097,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>input.2216</t>
+          <t>/backbone/stage4/stage4.2/branches.3/branches.3.1/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -29157,7 +29157,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>onnx::Add_3800</t>
+          <t>/backbone/stage4/stage4.2/branches.3/branches.3.1/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -29217,7 +29217,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>onnx::Relu_2904</t>
+          <t>/backbone/stage4/stage4.2/branches.3/branches.3.1/Add_output_0</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -29277,7 +29277,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>input.2232</t>
+          <t>/backbone/stage4/stage4.2/branches.3/branches.3.2/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -29337,7 +29337,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>onnx::Add_3806</t>
+          <t>/backbone/stage4/stage4.2/branches.3/branches.3.2/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -29397,7 +29397,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>onnx::Relu_2911</t>
+          <t>/backbone/stage4/stage4.2/branches.3/branches.3.2/Add_output_0</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -29457,7 +29457,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>input.2248</t>
+          <t>/backbone/stage4/stage4.2/branches.3/branches.3.3/conv1/Conv_output_0</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -29517,7 +29517,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>onnx::Add_3812</t>
+          <t>/backbone/stage4/stage4.2/branches.3/branches.3.3/conv2/Conv_output_0</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -29577,7 +29577,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>onnx::Relu_2918</t>
+          <t>/backbone/stage4/stage4.2/branches.3/branches.3.3/Add_output_0</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -29637,7 +29637,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>input.2280</t>
+          <t>/backbone/stage4/stage4.2/fuse_layers.0.3/fuse_layers.0.3.0/Conv_output_0</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -29697,7 +29697,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>onnx::Add_2944</t>
+          <t>/backbone/stage4/stage4.2/fuse_layers.0.3/fuse_layers.0.3.2/Resize_output_0</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -29757,7 +29757,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>onnx::Relu_2945</t>
+          <t>/backbone/stage4/stage4.2/Add_3_output_0</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -29995,7 +29995,7 @@
         </is>
       </c>
       <c r="S493" t="n">
-        <v>82232</v>
+        <v>81128</v>
       </c>
     </row>
     <row r="494">
